--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Il4-Il13ra1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Il4-Il13ra1.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.658048</v>
+        <v>0.3454506666666666</v>
       </c>
       <c r="H2">
-        <v>1.974144</v>
+        <v>1.036352</v>
       </c>
       <c r="I2">
-        <v>0.1830904640197834</v>
+        <v>0.1052716477644991</v>
       </c>
       <c r="J2">
-        <v>0.1830904640197835</v>
+        <v>0.1052716477644991</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>25.41813</v>
+        <v>1.845238666666667</v>
       </c>
       <c r="N2">
-        <v>76.25439</v>
+        <v>5.535716000000001</v>
       </c>
       <c r="O2">
-        <v>0.6391016201831307</v>
+        <v>0.1139123054545619</v>
       </c>
       <c r="P2">
-        <v>0.6391016201831305</v>
+        <v>0.1139123054545619</v>
       </c>
       <c r="Q2">
-        <v>16.72634961024</v>
+        <v>0.6374389275591111</v>
       </c>
       <c r="R2">
-        <v>150.53714649216</v>
+        <v>5.736950348032001</v>
       </c>
       <c r="S2">
-        <v>0.1170134121951248</v>
+        <v>0.01199173609585468</v>
       </c>
       <c r="T2">
-        <v>0.1170134121951248</v>
+        <v>0.01199173609585468</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.658048</v>
+        <v>0.3454506666666666</v>
       </c>
       <c r="H3">
-        <v>1.974144</v>
+        <v>1.036352</v>
       </c>
       <c r="I3">
-        <v>0.1830904640197834</v>
+        <v>0.1052716477644991</v>
       </c>
       <c r="J3">
-        <v>0.1830904640197835</v>
+        <v>0.1052716477644991</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>31.120505</v>
       </c>
       <c r="O3">
-        <v>0.2608264936145607</v>
+        <v>0.6403884287886557</v>
       </c>
       <c r="P3">
-        <v>0.2608264936145606</v>
+        <v>0.6403884287886557</v>
       </c>
       <c r="Q3">
-        <v>6.826262024746667</v>
+        <v>3.583533066417778</v>
       </c>
       <c r="R3">
-        <v>61.43635822272</v>
+        <v>32.25179759776</v>
       </c>
       <c r="S3">
-        <v>0.04775484374454299</v>
+        <v>0.0674147451079004</v>
       </c>
       <c r="T3">
-        <v>0.04775484374454299</v>
+        <v>0.0674147451079004</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.658048</v>
+        <v>0.3454506666666666</v>
       </c>
       <c r="H4">
-        <v>1.974144</v>
+        <v>1.036352</v>
       </c>
       <c r="I4">
-        <v>0.1830904640197834</v>
+        <v>0.1052716477644991</v>
       </c>
       <c r="J4">
-        <v>0.1830904640197835</v>
+        <v>0.1052716477644991</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>11.940074</v>
       </c>
       <c r="O4">
-        <v>0.1000718862023088</v>
+        <v>0.2456992657567824</v>
       </c>
       <c r="P4">
-        <v>0.1000718862023088</v>
+        <v>0.2456992657567825</v>
       </c>
       <c r="Q4">
-        <v>2.619047271850667</v>
+        <v>1.374902174449778</v>
       </c>
       <c r="R4">
-        <v>23.571425446656</v>
+        <v>12.374119570048</v>
       </c>
       <c r="S4">
-        <v>0.01832220808011568</v>
+        <v>0.02586516656074406</v>
       </c>
       <c r="T4">
-        <v>0.01832220808011568</v>
+        <v>0.02586516656074407</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>3.346101</v>
       </c>
       <c r="I5">
-        <v>0.3103315587652478</v>
+        <v>0.3398937483175971</v>
       </c>
       <c r="J5">
-        <v>0.3103315587652479</v>
+        <v>0.3398937483175971</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>25.41813</v>
+        <v>1.845238666666667</v>
       </c>
       <c r="N5">
-        <v>76.25439</v>
+        <v>5.535716000000001</v>
       </c>
       <c r="O5">
-        <v>0.6391016201831307</v>
+        <v>0.1139123054545619</v>
       </c>
       <c r="P5">
-        <v>0.6391016201831305</v>
+        <v>0.1139123054545619</v>
       </c>
       <c r="Q5">
-        <v>28.35054340371</v>
+        <v>2.058118315924</v>
       </c>
       <c r="R5">
-        <v>255.15489063339</v>
+        <v>18.523064843316</v>
       </c>
       <c r="S5">
-        <v>0.1983334020008263</v>
+        <v>0.03871808048045011</v>
       </c>
       <c r="T5">
-        <v>0.1983334020008263</v>
+        <v>0.03871808048045011</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>3.346101</v>
       </c>
       <c r="I6">
-        <v>0.3103315587652478</v>
+        <v>0.3398937483175971</v>
       </c>
       <c r="J6">
-        <v>0.3103315587652479</v>
+        <v>0.3398937483175971</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>31.120505</v>
       </c>
       <c r="O6">
-        <v>0.2608264936145607</v>
+        <v>0.6403884287886557</v>
       </c>
       <c r="P6">
-        <v>0.2608264936145606</v>
+        <v>0.6403884287886557</v>
       </c>
       <c r="Q6">
         <v>11.570261433445</v>
@@ -818,10 +818,10 @@
         <v>104.132352901005</v>
       </c>
       <c r="S6">
-        <v>0.08094269233068058</v>
+        <v>0.2176640234401928</v>
       </c>
       <c r="T6">
-        <v>0.08094269233068056</v>
+        <v>0.2176640234401928</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>3.346101</v>
       </c>
       <c r="I7">
-        <v>0.3103315587652478</v>
+        <v>0.3398937483175971</v>
       </c>
       <c r="J7">
-        <v>0.3103315587652479</v>
+        <v>0.3398937483175971</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>11.940074</v>
       </c>
       <c r="O7">
-        <v>0.1000718862023088</v>
+        <v>0.2456992657567824</v>
       </c>
       <c r="P7">
-        <v>0.1000718862023088</v>
+        <v>0.2456992657567825</v>
       </c>
       <c r="Q7">
         <v>4.439188172386</v>
@@ -880,10 +880,10 @@
         <v>39.952693551474</v>
       </c>
       <c r="S7">
-        <v>0.03105546443374098</v>
+        <v>0.0835116443969542</v>
       </c>
       <c r="T7">
-        <v>0.03105546443374098</v>
+        <v>0.08351164439695422</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>5.462097</v>
       </c>
       <c r="I8">
-        <v>0.5065779772149687</v>
+        <v>0.5548346039179038</v>
       </c>
       <c r="J8">
-        <v>0.5065779772149687</v>
+        <v>0.5548346039179038</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>25.41813</v>
+        <v>1.845238666666667</v>
       </c>
       <c r="N8">
-        <v>76.25439</v>
+        <v>5.535716000000001</v>
       </c>
       <c r="O8">
-        <v>0.6391016201831307</v>
+        <v>0.1139123054545619</v>
       </c>
       <c r="P8">
-        <v>0.6391016201831305</v>
+        <v>0.1139123054545619</v>
       </c>
       <c r="Q8">
-        <v>46.27876387287</v>
+        <v>3.359624195161334</v>
       </c>
       <c r="R8">
-        <v>416.50887485583</v>
+        <v>30.236617756452</v>
       </c>
       <c r="S8">
-        <v>0.3237548059871795</v>
+        <v>0.06320248887825713</v>
       </c>
       <c r="T8">
-        <v>0.3237548059871795</v>
+        <v>0.06320248887825715</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>5.462097</v>
       </c>
       <c r="I9">
-        <v>0.5065779772149687</v>
+        <v>0.5548346039179038</v>
       </c>
       <c r="J9">
-        <v>0.5065779772149687</v>
+        <v>0.5548346039179038</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>31.120505</v>
       </c>
       <c r="O9">
-        <v>0.2608264936145607</v>
+        <v>0.6403884287886557</v>
       </c>
       <c r="P9">
-        <v>0.2608264936145606</v>
+        <v>0.6403884287886557</v>
       </c>
       <c r="Q9">
         <v>18.88702411099834</v>
@@ -1004,10 +1004,10 @@
         <v>169.983216998985</v>
       </c>
       <c r="S9">
-        <v>0.1321289575393371</v>
+        <v>0.3553096602405625</v>
       </c>
       <c r="T9">
-        <v>0.1321289575393371</v>
+        <v>0.3553096602405625</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>5.462097</v>
       </c>
       <c r="I10">
-        <v>0.5065779772149687</v>
+        <v>0.5548346039179038</v>
       </c>
       <c r="J10">
-        <v>0.5065779772149687</v>
+        <v>0.5548346039179038</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>11.940074</v>
       </c>
       <c r="O10">
-        <v>0.1000718862023088</v>
+        <v>0.2456992657567824</v>
       </c>
       <c r="P10">
-        <v>0.1000718862023088</v>
+        <v>0.2456992657567825</v>
       </c>
       <c r="Q10">
         <v>7.246426930575334</v>
@@ -1066,10 +1066,10 @@
         <v>65.21784237517799</v>
       </c>
       <c r="S10">
-        <v>0.05069421368845212</v>
+        <v>0.1363224547990842</v>
       </c>
       <c r="T10">
-        <v>0.05069421368845211</v>
+        <v>0.1363224547990842</v>
       </c>
     </row>
   </sheetData>
